--- a/pred_ohlcv/54_21/2019-10-18 XEM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-18 XEM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>808665.0659604999</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>756623.8331604999</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>774488.4512604999</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>774488.4512604999</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>835340.4848604999</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>835340.4848604999</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>835340.4848604999</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>825394.6852604998</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>847821.6989604998</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>819866.6989604998</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>819866.6989604998</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>891893.8090604999</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>781515.0223604999</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>690258.9996605</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>662601.8434605</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>662601.8434605</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>646850.5204605</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>631354.1024605001</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>626504.7430605001</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>725441.6235605001</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>530176.7407605001</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>613133.6208605</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>541572.8356605</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>541572.8356605</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>549372.8356605</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>549361.8356605</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>568961.8356605</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>569003.7041605</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>568992.7041605</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>806989.2179680902</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>802415.1933383202</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>783553.8873383203</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>784704.0048383203</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>785732.0048383203</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>1080486.459082541</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>1079644.434282541</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>1081609.134582541</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>1079845.789582541</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>1079845.789582541</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>1183633.958082541</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>1211740.522682541</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>1220602.509382541</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>1194075.552882541</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>1201555.15915997</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>1200949.15915997</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>1200949.15915997</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>1200949.15915997</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>1200949.15915997</v>
       </c>
       <c r="H262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>1216943.459959971</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>1189812.159459971</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>1189812.159459971</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>1189812.159459971</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>1140232.159459971</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>1140232.159459971</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>1146846.313459971</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>1140601.382059971</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>1141716.747259971</v>
       </c>
       <c r="H271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>1141716.747259971</v>
       </c>
       <c r="H272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>1141716.747259971</v>
       </c>
       <c r="H273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>1141716.747259971</v>
       </c>
       <c r="H274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>1141716.747259971</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>1142693.338859971</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>1109792.555759971</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>1110071.534859971</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>1110071.534859971</v>
       </c>
       <c r="H279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>1109522.192559971</v>
       </c>
       <c r="H280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>1109522.192559971</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>1110401.561159971</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>1110401.561159971</v>
       </c>
       <c r="H283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>1110401.561159971</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>1110401.561159971</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>1110401.561159971</v>
       </c>
       <c r="H286">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>1095934.845559971</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>1096112.882659971</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>1096112.882659971</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>1096112.882659971</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>1096112.882659971</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>1096112.882659971</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>1096112.882659971</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>1096112.882659971</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>1096112.882659971</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>1094364.703159971</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>1095279.024959971</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>1094279.024959971</v>
       </c>
       <c r="H298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>1094510.024959971</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>1094510.024959971</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>1041727.138359971</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>1071248.103259971</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>1084648.103259971</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>1084648.103259971</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>1084648.103259971</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>1084681.103259971</v>
       </c>
       <c r="H306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>1069713.590859971</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>1069713.590859971</v>
       </c>
       <c r="H308">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>1069808.153359971</v>
       </c>
       <c r="H309">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>1068888.153359971</v>
       </c>
       <c r="H310">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>1067683.153359971</v>
       </c>
       <c r="H311">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>1067683.153359971</v>
       </c>
       <c r="H312">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>1094672.337459971</v>
       </c>
       <c r="H313">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>1094672.337459971</v>
       </c>
       <c r="H314">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>1094672.337459971</v>
       </c>
       <c r="H315">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>1094672.337459971</v>
       </c>
       <c r="H316">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>1095524.740459971</v>
       </c>
       <c r="H317">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>1086170.761559971</v>
       </c>
       <c r="H318">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>1086170.761559971</v>
       </c>
       <c r="H319">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>1098350.349359971</v>
       </c>
       <c r="H320">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>1098371.538559971</v>
       </c>
       <c r="H321">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>1098371.538559971</v>
       </c>
       <c r="H322">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>1098371.538559971</v>
       </c>
       <c r="H323">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>1098371.538559971</v>
       </c>
       <c r="H324">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>1100967.020859971</v>
       </c>
       <c r="H325">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>1099238.049359971</v>
       </c>
       <c r="H326">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>1099238.049359971</v>
       </c>
       <c r="H327">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>1099025.353459971</v>
       </c>
       <c r="H328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>1099025.353459971</v>
       </c>
       <c r="H329">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>1103070.097459971</v>
       </c>
       <c r="H330">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>1103070.097459971</v>
       </c>
       <c r="H331">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>1103479.790359971</v>
       </c>
       <c r="H332">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>1103479.790359971</v>
       </c>
       <c r="H333">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>1079279.790359971</v>
       </c>
       <c r="H334">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>1079626.798559971</v>
       </c>
       <c r="H335">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>1079626.798559971</v>
       </c>
       <c r="H336">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>1037443.530959971</v>
       </c>
       <c r="H337">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>1037916.597259971</v>
       </c>
       <c r="H338">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>1037916.597259971</v>
       </c>
       <c r="H339">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>1037317.180759971</v>
       </c>
       <c r="H340">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>1037317.180759971</v>
       </c>
       <c r="H341">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>1037356.413059971</v>
       </c>
       <c r="H342">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>1036934.406659971</v>
       </c>
       <c r="H343">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>1036964.406659971</v>
       </c>
       <c r="H344">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>1036526.015859971</v>
       </c>
       <c r="H345">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>1036717.647759971</v>
       </c>
       <c r="H346">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>1036717.647759971</v>
       </c>
       <c r="H347">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>1036717.647759971</v>
       </c>
       <c r="H348">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>1036717.647759971</v>
       </c>
       <c r="H349">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>1036132.667659971</v>
       </c>
       <c r="H350">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>1036389.065659971</v>
       </c>
       <c r="H351">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>1036389.065659971</v>
       </c>
       <c r="H352">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>1036389.065659971</v>
       </c>
       <c r="H353">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>1036389.065659971</v>
       </c>
       <c r="H354">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>1036389.065659971</v>
       </c>
       <c r="H355">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>1036389.065659971</v>
       </c>
       <c r="H356">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>1036389.065659971</v>
       </c>
       <c r="H357">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>1036389.065659971</v>
       </c>
       <c r="H358">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>1055718.129659971</v>
       </c>
       <c r="H359">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>1061688.129659971</v>
       </c>
       <c r="H360">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>1104888.129659971</v>
       </c>
       <c r="H361">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>1233076.696759971</v>
       </c>
       <c r="H362">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>1838887.759882891</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>1846775.899482891</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>1846775.899482891</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>2163789.987617571</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>2065566.469717571</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>2065566.469717571</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>2068766.469717571</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>2061060.575417571</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>2152013.863700441</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>1999561.229600441</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>2069696.268800441</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>2069119.240400441</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>2124181.905200441</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>2035390.541800441</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>2035703.367800441</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>2035703.367800441</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>2445530.614453851</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>2458140.614453851</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>2495870.710453851</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>2566029.146653851</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>2566029.146653851</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>2566029.146653851</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>2450756.951153851</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>2445647.10175385</v>
       </c>
       <c r="H508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>2455618.44775385</v>
       </c>
       <c r="H509">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>2455618.44775385</v>
       </c>
       <c r="H510">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>2455618.44775385</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>2450123.17745385</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>2450135.17745385</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>2427939.460253851</v>
       </c>
       <c r="H514">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>2428148.755453851</v>
       </c>
       <c r="H515">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>2428148.755453851</v>
       </c>
       <c r="H516">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>2316017.313853851</v>
       </c>
       <c r="H517">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>2326497.669553851</v>
       </c>
       <c r="H518">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>2326507.669553851</v>
       </c>
       <c r="H519">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>2360384.787853851</v>
       </c>
       <c r="H520">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>2360384.787853851</v>
       </c>
       <c r="H521">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>2355702.505253851</v>
       </c>
       <c r="H522">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>2393812.605953851</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>2384169.605953851</v>
       </c>
       <c r="H524">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>2353938.329553851</v>
       </c>
       <c r="H525">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>2399457.262053851</v>
       </c>
       <c r="H526">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>2370166.091253851</v>
       </c>
       <c r="H527">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>2370177.091253851</v>
       </c>
       <c r="H528">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>2389668.063753851</v>
       </c>
       <c r="H529">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>2389668.063753851</v>
       </c>
       <c r="H530">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>2386074.198453851</v>
       </c>
       <c r="H531">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>2386074.198453851</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>2386074.198453851</v>
       </c>
       <c r="H533">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>2383442.929553851</v>
       </c>
       <c r="H534">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>2389042.929553851</v>
       </c>
       <c r="H535">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>2382464.987253851</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>2393040.987253851</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>2318733.828253851</v>
       </c>
       <c r="H538">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>2362608.490953851</v>
       </c>
       <c r="H539">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>2362598.490953851</v>
       </c>
       <c r="H540">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>2364005.070153851</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>2364005.070153851</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>2360915.280153851</v>
       </c>
       <c r="H543">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>2287337.29815764</v>
       </c>
       <c r="H609">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-18 XEM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-18 XEM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>808665.0659604999</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>756623.8331604999</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>774488.4512604999</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>774488.4512604999</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>835340.4848604999</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>835340.4848604999</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>835340.4848604999</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>825394.6852604998</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>847821.6989604998</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>819866.6989604998</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>819866.6989604998</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>891893.8090604999</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>781515.0223604999</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>690258.9996605</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>662601.8434605</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>662601.8434605</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>646850.5204605</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>631354.1024605001</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>626504.7430605001</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>725441.6235605001</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>496632.2377605001</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>496632.2377605001</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>496632.2377605001</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>496632.2377605001</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>498673.3526605</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>498673.3526605</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>490158.9895605</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>605774.3650605</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>528459.7738605</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>611299.6917605</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>657493.35568907</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>647962.3332890699</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>653056.24788907</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>652097.08038907</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>692706.8988605</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>798271.16675286</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>777054.45435286</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>753152.49685286</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>1129313.57005286</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>1161463.81695286</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>1143372.88925286</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>988444.7493528601</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>995003.7493528601</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>1005155.70885286</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>832970.8355680903</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>833689.6518680903</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>806341.3901680902</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>806989.2179680902</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>802415.1933383202</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>794426.0689383203</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>783553.8873383203</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>784704.0048383203</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>785732.0048383203</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>783532.0048383203</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>790136.6206383203</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>790136.6206383203</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>790136.6206383203</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>790136.6206383203</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>769482.4643383203</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>785946.2950383204</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>784648.9177383203</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>825326.9176383204</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>1201555.15915997</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>1200949.15915997</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>1200949.15915997</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>1200949.15915997</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>1200949.15915997</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>1216943.459959971</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>1189812.159459971</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>1189812.159459971</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>1189812.159459971</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>1140232.159459971</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>1140232.159459971</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>1146846.313459971</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>1140601.382059971</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>1141716.747259971</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>1141716.747259971</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>1141716.747259971</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>1141716.747259971</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>1141716.747259971</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>1142693.338859971</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>1109792.555759971</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>1110071.534859971</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>1110071.534859971</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>1109522.192559971</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>1109522.192559971</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>1110401.561159971</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>1110401.561159971</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>1110401.561159971</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>1110401.561159971</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>1110401.561159971</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>1095934.845559971</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>1096112.882659971</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>1096112.882659971</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>1096112.882659971</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>1096112.882659971</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>1096112.882659971</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>1096112.882659971</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>1096112.882659971</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>1096112.882659971</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>1094364.703159971</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>1095279.024959971</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>1094279.024959971</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>1094510.024959971</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>1094510.024959971</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>1041727.138359971</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>1071248.103259971</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>1084648.103259971</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>1084648.103259971</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>1084648.103259971</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>1084681.103259971</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>1069713.590859971</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>1069713.590859971</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>1069808.153359971</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>1068888.153359971</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>1067683.153359971</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>1067683.153359971</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>1094672.337459971</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>1094672.337459971</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>1094672.337459971</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>1094672.337459971</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>1095524.740459971</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>1086170.761559971</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>1086170.761559971</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>1098350.349359971</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>1098371.538559971</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>1098371.538559971</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>1098371.538559971</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>1098371.538559971</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>1100967.020859971</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>1099238.049359971</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>1099238.049359971</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>1099025.353459971</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>1099025.353459971</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>1103070.097459971</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>1103070.097459971</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>1103479.790359971</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>1103479.790359971</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>1079279.790359971</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>1079626.798559971</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>1079626.798559971</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>1037443.530959971</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>1037916.597259971</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>1037916.597259971</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>1037317.180759971</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>1037317.180759971</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>1037356.413059971</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>1036934.406659971</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>1036964.406659971</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>1036526.015859971</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>1036717.647759971</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>1036717.647759971</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>1036717.647759971</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>1036717.647759971</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>1036132.667659971</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>1036389.065659971</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>1036389.065659971</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>1036389.065659971</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>1036389.065659971</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>1036389.065659971</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>1036389.065659971</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>1036389.065659971</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>1036389.065659971</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>1055718.129659971</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>1061688.129659971</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>1104888.129659971</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>1233076.696759971</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>1233076.696759971</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>1838887.759882891</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>1846775.899482891</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>1846775.899482891</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>2163789.987617571</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>2065566.469717571</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>2065566.469717571</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>2068766.469717571</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>2061060.575417571</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>2152013.863700441</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>1999561.229600441</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>2069696.268800441</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>2069119.240400441</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>2124181.905200441</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>2035390.541800441</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>2035703.367800441</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>2035703.367800441</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>2315875.296875531</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>2453608.899653851</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>2376035.377853851</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>2376035.377853851</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>2485901.114453851</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>2445530.614453851</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>2458140.614453851</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>2495870.710453851</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>2566029.146653851</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>2566029.146653851</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>2566029.146653851</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>2450756.951153851</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>2445647.10175385</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>2455618.44775385</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>2455618.44775385</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>2455618.44775385</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>2450123.17745385</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>2450135.17745385</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>2427939.460253851</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>2428148.755453851</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>2428148.755453851</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>2316017.313853851</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>2326497.669553851</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>2326507.669553851</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>2360384.787853851</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>2360384.787853851</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>2355702.505253851</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>2393812.605953851</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>2384169.605953851</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>2353938.329553851</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>2399457.262053851</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>2370166.091253851</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>2370177.091253851</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>2389668.063753851</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>2389668.063753851</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>2386074.198453851</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>2386074.198453851</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>2386074.198453851</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>2383442.929553851</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>2389042.929553851</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>2382464.987253851</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>2393040.987253851</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>2318733.828253851</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>2362608.490953851</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>2364005.070153851</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>2349507.916557641</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>2349797.916557641</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>2341915.329757641</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>2341915.329757641</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>2327265.679857641</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>2327232.59855764</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>2308192.78515764</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>2269171.45605764</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>2300541.35945764</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>2287337.29815764</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:8">
